--- a/xlsx/Wright Gemini 2_intext.xlsx
+++ b/xlsx/Wright Gemini 2_intext.xlsx
@@ -29,7 +29,7 @@
     <t>莱特日蚀双子星型</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Wright Gemini 2</t>
+    <t>政策_政策_混合动力车辆_Wright Gemini 2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wrightbus</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%88%A9%E7%B1%B3%E7%B4%8D%E5%8D%80</t>
   </si>
   <si>
-    <t>巴利米納區</t>
+    <t>巴利米纳区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wright_Pulsar_Gemini_HEV</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>變速器</t>
+    <t>变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E4%BC%8A%E7%89%B9</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VDL%E5%B7%B4%E5%A3%AB</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%96%80%E5%AD%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>西門子公司</t>
+    <t>西门子公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wright_%E6%97%A5%E8%9A%80%E5%8F%8C%E5%AD%90%E6%98%9F%E5%9E%8B</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>萊特巴士</t>
+    <t>莱特巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wright_Solar</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E6%97%A5%E8%9D%95</t>
   </si>
   <si>
-    <t>萊特日蝕</t>
+    <t>莱特日蚀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wright_Pulsar</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E8%84%88%E8%A1%9D%E9%9B%99%E5%AD%90%E6%98%9F%E5%9E%8B</t>
   </si>
   <si>
-    <t>萊特脈衝雙子星型</t>
+    <t>莱特脉冲双子星型</t>
   </si>
 </sst>
 </file>
